--- a/medicine/Mort/Peine_de_mort_en_Bosnie-Herzégovine/Peine_de_mort_en_Bosnie-Herzégovine.xlsx
+++ b/medicine/Mort/Peine_de_mort_en_Bosnie-Herzégovine/Peine_de_mort_en_Bosnie-Herzégovine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Peine_de_mort_en_Bosnie-Herz%C3%A9govine</t>
+          <t>Peine_de_mort_en_Bosnie-Herzégovine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La peine de mort en Bosnie-Herzégovine est formellement et pleinement abolie depuis 1999. De fait, elle n'a jamais été légalement appliquée en Bosnie-Herzégovine depuis l'indépendance du pays.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Peine_de_mort_en_Bosnie-Herz%C3%A9govine</t>
+          <t>Peine_de_mort_en_Bosnie-Herzégovine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La dernière exécution sur le territoire de l'actuelle Bosnie-Herzégovine a eu lieu en 1977[1], alors que la République socialiste de Bosnie-Herzégovine était encore l'une des républiques constitutives de la Yougoslavie.
-La peine de mort a été abolie en 1998 par la Constitution fédérale, bien que la peine de mort soit restée présente dans la Constitution de la Republika Srpska, l'une des deux entités de Bosnie-Herzégovine, où elle a été entérinée à l'article 11, qui se lisait comme suit : « La vie humaine est inviolable. La peine de mort ne peut être prononcée que de manière exclusive pour les crimes capitaux. »[2].
-Le 4 octobre 2019, la Cour suprême de Bosnie-Herzégovine a finalement aboli la peine de mort en Republika Srpska. La Bosnie-Herzégovine devient ainsi le dernier pays d'Europe à avoir aboli totalement la peine de mort à tous les niveaux de son pouvoir judiciaire[3]. Seules la Biélorussie et la Russie ne l'ont pas fait.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dernière exécution sur le territoire de l'actuelle Bosnie-Herzégovine a eu lieu en 1977, alors que la République socialiste de Bosnie-Herzégovine était encore l'une des républiques constitutives de la Yougoslavie.
+La peine de mort a été abolie en 1998 par la Constitution fédérale, bien que la peine de mort soit restée présente dans la Constitution de la Republika Srpska, l'une des deux entités de Bosnie-Herzégovine, où elle a été entérinée à l'article 11, qui se lisait comme suit : « La vie humaine est inviolable. La peine de mort ne peut être prononcée que de manière exclusive pour les crimes capitaux. ».
+Le 4 octobre 2019, la Cour suprême de Bosnie-Herzégovine a finalement aboli la peine de mort en Republika Srpska. La Bosnie-Herzégovine devient ainsi le dernier pays d'Europe à avoir aboli totalement la peine de mort à tous les niveaux de son pouvoir judiciaire. Seules la Biélorussie et la Russie ne l'ont pas fait.
 La Bosnie-Herzégovine est partie aux accords internationaux abolitionnistes, dont le Protocole n°6 et le Protocole n°13 du Conseil de l'Europe.
 </t>
         </is>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Peine_de_mort_en_Bosnie-Herz%C3%A9govine</t>
+          <t>Peine_de_mort_en_Bosnie-Herzégovine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Exécutions depuis 1959</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Source : SPSK Database
 </t>
